--- a/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
+++ b/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD9E500-F045-4975-ACFB-BDC4D4972DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="712" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
-  <si>
-    <t>&lt;Nombre Proyecto&gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -40,9 +38,6 @@
     <t>Organismo</t>
   </si>
   <si>
-    <t>&lt;Nombre Consejería u Organismo Autónomo&gt;</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -52,9 +47,6 @@
     <t>Autor</t>
   </si>
   <si>
-    <t>&lt;Nombre de la Empresa&gt;</t>
-  </si>
-  <si>
     <t>Versión / Edición</t>
   </si>
   <si>
@@ -160,19 +152,10 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Conocer con mayor profundidad la problemática del proceso</t>
-  </si>
-  <si>
     <t>Entrevista</t>
   </si>
   <si>
     <t>Cuestionario con preguntas base (Anexo 1)</t>
-  </si>
-  <si>
-    <t>Gerente Producción (Bob Constructor)</t>
-  </si>
-  <si>
-    <t>Juanita Preguntona</t>
   </si>
   <si>
     <t>Grabadora
@@ -185,54 +168,228 @@
     <t>Hoja de chequeo (Anexo 2)</t>
   </si>
   <si>
-    <t>Planta Producción Sede Funza</t>
-  </si>
-  <si>
-    <t>Mirón Calle</t>
-  </si>
-  <si>
-    <t>Videograbadora
+    <t>Encuesta</t>
+  </si>
+  <si>
+    <t>&lt;SISTEMATIC CUTEX&gt;</t>
+  </si>
+  <si>
+    <t>SISTEMATIC CUTEX</t>
+  </si>
+  <si>
+    <t>Peleteria Cuero y Color</t>
+  </si>
+  <si>
+    <t>15/12/2021</t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Aprendizaje SENA</t>
+  </si>
+  <si>
+    <t>Katerine Morcillo Ordoñez</t>
+  </si>
+  <si>
+    <t>Brayan Rosas</t>
+  </si>
+  <si>
+    <t>Aaron Sierra</t>
+  </si>
+  <si>
+    <t>Identificar las actividades que se desempeñan dentro de la empresa.</t>
+  </si>
+  <si>
+    <t>Cuestionario con preguntas de base ( Anexo 1)</t>
+  </si>
+  <si>
+    <t>Dueña de la Empresa (Sra Yaneth Ortiz)</t>
+  </si>
+  <si>
+    <t>Se confirma que la persona entrevistada permite que se realice la grabación de la entrevista.</t>
+  </si>
+  <si>
+    <t>Local Peleteria Cueros y Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Libreta de apuntes</t>
   </si>
   <si>
-    <t>Confirmar que se permita el uso de la videograbadora</t>
-  </si>
-  <si>
-    <t>Medir la percepción de los clientes internos sobre el proceso actual</t>
-  </si>
-  <si>
-    <t>Encuesta</t>
-  </si>
-  <si>
-    <t>Cuestionario Encuesta (Anexo 3)</t>
-  </si>
-  <si>
-    <t>Muestra de 15 trabajadores de las 5 áreas de la empresa. Listado anexo 4</t>
-  </si>
-  <si>
-    <t>Entrevista grupal</t>
-  </si>
-  <si>
-    <t>Cuestionario Entrevista Grupo ( Anexo 5)</t>
-  </si>
-  <si>
-    <t>Grupo de 5 analistas, uno de cada área. Listado anexo 6</t>
-  </si>
-  <si>
-    <t>Identificar reglamentaciones respecto al proceso</t>
-  </si>
-  <si>
-    <t>Investigación</t>
-  </si>
-  <si>
-    <t>Internet</t>
+    <t>Se confirma que se permite observar las actividades y recursos dentro de la empresa</t>
+  </si>
+  <si>
+    <t>Conocer como se hace la documentación dentro de la empresa</t>
+  </si>
+  <si>
+    <t>Cuestionario  con preguntas de base(Anexo 1)</t>
+  </si>
+  <si>
+    <t>Katherine Morcillo</t>
+  </si>
+  <si>
+    <t>Describir como se hace el marketing dentro de la empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Chequeo </t>
+  </si>
+  <si>
+    <t>CUMPLE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Los artículos están organizados y agrupados por tipos de productos</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Algunos se encuentran distribuidos en diferentes partes del local como, por ejemplo: los bolsos y billeteras</t>
+  </si>
+  <si>
+    <t>Las ventas se realizan de forma presencial</t>
+  </si>
+  <si>
+    <t>Presencial o telefónica.</t>
+  </si>
+  <si>
+    <t>Las ventas se realizan por vía telefónica</t>
+  </si>
+  <si>
+    <t>Los artículos están referenciados</t>
+  </si>
+  <si>
+    <t>Los artículos están inventariados</t>
+  </si>
+  <si>
+    <t>Cuando se realiza la venta se entrega comprobante de ella</t>
+  </si>
+  <si>
+    <t>A menos que el cliente exija la factura legal.</t>
+  </si>
+  <si>
+    <t>Las ventas se registran en un sistema de información</t>
+  </si>
+  <si>
+    <t>Las ventas se registran en un cuaderno de ventas diarias.</t>
+  </si>
+  <si>
+    <t>Los clientes entran con regularidad</t>
+  </si>
+  <si>
+    <t>Existe manejo de clientes por redes sociales</t>
+  </si>
+  <si>
+    <t>Se evidencia paquetes para envíos nacionales</t>
+  </si>
+  <si>
+    <t>Se evidencia pagos con tarjeta</t>
+  </si>
+  <si>
+    <t>Poseen datafono para recepción de pagos con tarjeta</t>
+  </si>
+  <si>
+    <t>Se evidencia equipos de computo</t>
+  </si>
+  <si>
+    <t>Se evidencia uso de tarjetas comerciales como divulgación comercial</t>
+  </si>
+  <si>
+    <t>En el presente proyecto se utilizaron las técnicas de recolección de información: Entrevista y observación a través de una lista de chequeo, las cuales son técnicas donde podemos trasladar el conocimiento obtenido a una forma documentada. La entrevista es una técnica donde se presentan preguntas a la persona implicada con el apoyo de preguntas previamente definidas que pueden ser resueltas de manera inmediata. Esta técnica es adecuada porque la atención particular e individual permite al entrevistador abordar todos los puntos que han sido señalados previamente donde se puede abarcar una gran cantidad de temas, siendo una actividad de bajo coste y poco tiempo necesitado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunque la entrevista permite capturar un conocimiento explicito, se requiere combinarla con otro tipo de tecnicas , por tal razón, se realizó una observación documentada mediante una lista de chequeo, la cual permite aprender las tareas desarrolladas en la empresa y con ello adquirir un nivel de conocimiento destallado y puntual, el chequeo es deducido a partir del conocimiento adquirido.	</t>
+  </si>
+  <si>
+    <t>Buenos días, señora Janeth Ortiz. Primero que todo, darle las gracias por este tiempo que ustedes me regalan para poder conocer mucho más de la funcionalidad de su empresa. La señora Janeth es dueña de la empresa Peletería, Cueros y Color. 
+Entonces me gustaría saber, doña Yaneth, ¿cómo está conformada su empresa? 
+Sí, buenas tardes. Mi empresa está conformada por una sola persona que soy yo. 
+1. ¿De qué se trata su empresa? 
+Mi empresa se trata. Bueno, tenemos una fábrica de curtiembres como tal, se procesan los cueros y luego se hace la materia prima para fabricar los bolsos y calzado, billeteras, correas. 
+2. Señora Janet. ¿Cómo lleva el control de su negocio actualmente? 
+el control yo lo llevo, pues ahora lo tengo todo en un libro, lo que se va vendiendo y lo que entra y lo que sale, y también la contabilidad de todo. 
+3. ¿Cómo se ha desempeñado su empresa a través del tiempo? 
+Pues mi empresa está funcionando bien. Hasta luego. Pues cuando llegó la pandemia, eso un poco regular, las ventas, todo bajó muchísimo y ahorita estamos un poquito señora haciendo esto y ahorita pues estamos retomando nuevamente con el negocio. 
+4. ¿Usted ha definido o implantado un organigrama funcional en la empresa con sus funciones y responsabilidades? 
+Sí, por ahorita ya mis obligaciones y responsabilidades las tengo yo, porque anteriormente había una persona, pero ahora me toca a mí. 
+5.¿Cuántos proveedores diferentes tiene para cada tipo de materia prima o servicio utilizado en la producción de sus productos a los proveedores? 
+Tengo cinco proveedores, 
+6. Doña Yaneth, ¿en dónde realiza usted la documentación de su empresa? 
+Eso lo manejo en libros y en cuadernos de contabilidad. 
+7. ¿Qué documentos legales manejan de su empresa? 
+ Cámara de Comercio y Nit
+8. Con más el registro de la contabilidad de esos buenos le retomó la pregunta Señora Janeth, ¿cómo hace su registro de contabilidad en su empresa? 
+Mi registro de contabilidad de la empresa. Yo lo hago en cuaderno, en cuadernos de registro. Y la contabilidad se maneja cada mes, cada mes voy mirando lo que he vendido, lo que me queda. 
+10.¿Cómo realiza su sistema de facturación? 
+Manejo talonario, recibos y pues todo es legal. 
+11. ¿Cómo tiene conformado su inventario? 
+El inventario, todo lo anoto y cada mes hago como un archivo de todo lo que tengo, de lo que ha salido.
+12. ¿y cada cuánto lleva registro de su inventario cada mes. ¿Doña Janeth son todos sus productos individualmente rentables?
+ Sí son rentables todos los productos y el inventario lo hago cada mes.
+13. ¿Cuántas líneas de producto tiene su empresa? 
+Líneas, Pues manejo bolso de dama, bolso de hombre, billetera, cinturones, pieles para calzado. 
+14. ¿Pueden otros vender tus productos o están protegidos, por ejemplo, ante patentes exclusivas? 
+No, no están protegidos, si, los pueden vender otros.
+15. ¿Cómo se selecciona a los proveedores aquí en su empresa? 
+Yo los selecciono por la calidad de los productos. 
+16. ¿Qué sistema de información utiliza o redes sociales utiliza para dar a conocer sus productos? 
+No, no utilizo redes sociales, ni sistemas.
+17. ¿Cómo se dan a conocer sus productos?
+acá en el almacén, los recibos, así los vendo. 
+18. ¿Tiene algún conocimiento de que es un sistema de información? 
+No, no tengo conocimiento. 
+19. Bueno, doña Janeth, más o menos le voy a explicar en qué consiste un sistema de información. Un sistema de información es como una ayuda a los empresarios donde usted puede realizar, por ejemplo, registros, facturas, inventarios a través de este tipo de sistemas. A raíz de lo que le he explicado en forma muy general, ¿de pronto ha pensado alguna vez en utilizar este tipo de sistemas de información? 
+Sí. 
+20. ¿Qué le gustaría que hiciera ese sistema? Información en que ve más énfasis que le gustaría que le ayude un sistema de información. 
+Me gustaría más la facturación electrónica y llevar mi contabilidad puesto en un computador. 
+Bueno, Doña Janet, le agradezco mucho su tiempo. Sé que es muy valioso y gracias por darme a conocer más sobre la funcionalidad de su empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se desarrolló el instrumento de la entrevista, y para dar apoyo al instrumento y conocer más sobre la empresa, se desarrollaron varias preguntas de respuesta abiertas y cerradas  que son las siguientes:
+Conocer las actividades que se desempeñan dentro la empresa 
+1.  ¿Cómo está conformada su empresa? 
+2. ¿ Cómo lleva el control de su negocio? 
+3. ¿Cómo se ha desempeñado la empresa a través del tiempo?
+4. ¿Has definido e implantado un organigrama funcional en la empresa con sus funciones y responsabilidades?
+5.  ¿Cuántos proveedores diferentes tienen para cada tipo de materia prima o servicio utilizado en la producción de su producto?
+Conocer la documentación que se presenta en la empresa 
+7. ¿En donde realiza la documentación de su empresa? 
+8. ¿Qué documentos legales maneja su empresa?   
+9. ¿Cómo hacer registro de la contabilidad de su empresa? 
+10. ¿Cómo realiza su sistema de facturación?
+11. ¿Cómo tiene conformado su inventario?
+12. ¿Cada cuánto lleva registro de su inventario?
+Conocer cómo se realizan las ventas en la empresa 
+13. ¿Son todos tus productos individualmente rentables? 
+14. ¿Cuántas líneas de producto tiene tu empresa? 
+15. ¿Pueden otros vender tus productos o están protegidos, por ejemplo, por patentes o exclusivas? 
+16. ¿Cómo se selecciona a los proveedores? 
+17. ¿Qué sistemas de información o redes sociales utilizan para dar a conocer sus productos? 
+18. ¿Tiene algún conocimiento de sistema de información ?
+19. ¿Ha pensado alguna vez usar un sistema de información?
+20. ¿Qué le gustaría que hiciera el sistema de información? 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>ITEMB13:E21B13:E22B13:E21B1B13:E26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+B13:D21</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +482,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -358,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -741,51 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -882,13 +1030,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -990,30 +1201,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1054,17 +1267,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1081,323 +1352,710 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1917484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180177</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="1257300" y="1076325"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193459</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>199227</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="1428750" y="1095375"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1688884</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>256377</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="1028700" y="971550"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
+      <xdr:colOff>1317409</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+      <xdr:rowOff>180177</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="657225" y="714375"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+      <xdr:colOff>1384084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>218277</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="723900" y="1114425"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183934</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180177</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="1533525" y="1076325"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790574</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A50DB7B-ECA7-4795-9406-29FC90149874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800099" y="2390775"/>
+          <a:ext cx="8239125" cy="5595226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289157</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>24798</xdr:rowOff>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458001" cy="1010155"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2155609</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123027</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Un letrero de color blanco&#10;&#10;Descripción generada automáticamente con confianza media">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum bright="-50000"/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1089257" y="929673"/>
-          <a:ext cx="1458001" cy="1010155"/>
+          <a:off x="1495425" y="476250"/>
+          <a:ext cx="1460284" cy="570702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln cap="flat">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F4E28-0E6A-40A1-8F1B-B346F7C538F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="1400175"/>
+          <a:ext cx="6486525" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>A partir de las respuestas obtenidas en la entrevista y en la observación se puede analizar:</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En la primera pregunta donde se habla de la conformación de la empresa, se infiere que es una empresa pequeña ya que representa a una sola persona realizando todos los cargos presentes.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En la segunda pregunta se tiene información de que se trata la empresa, donde se observa que existe una variedad de artículos fabricados en cuero como: bolsos, billeteras, correas, etc, debidamente organizados e inventariados para un correcto control de la empresa.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En la tercera pregunta se puede inferir que el control de la empresa no es sistematizado, se hace mediante apuntes en diferentes cuadernos adoptados por la empresa como libros de contabilidad, los cuales se revisan cada mes para realizar cuentas manuales y así generar reportes.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Las preguntas 7,9 y 10 complementan la información anterior, ya que se evidencia el manejo manual de facturas y documentación del proceso de las ventas en cuadernos de registros diarios adoptados por la dueña de empresa.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>La pregunta 5 nos revela que no existe un organigrama de funciones especificas ya que todas las obligaciones y responsabilidades corren por parte de la dueña de la empresa.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>En las preguntas 11, 12, 13 y 14 se obtiene conocimiento del sistema de inventario de la empresa donde se explica que se realiza de forma manual, cada mes, en libros de apuntes, no se encuentra registro de inventario sistematizado, esto también se evidencia en el registro de observación, donde se registró que dentro de la empresa no existe ningún sistema de cómputo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Las preguntas 6 y 15 hacen referencia a la selección de proveedores por calidad de productos y la cantidad de 5 proveedores fijos para la empresa.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-419" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Las preguntas 16 y 17 nos da a entender el sistema de publicidad de la empresa, donde se infiere que solo hay un comercio netamente presencial, ya que tampoco existe manejo de redes sociales o alguna otra forma para difundir los productos. </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1477,6 +2135,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1512,6 +2187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1687,11 +2379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1716,44 +2408,44 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="12" spans="2:8">
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="2"/>
@@ -1762,98 +2454,96 @@
     </row>
     <row r="18" spans="2:16" ht="18.75" thickTop="1">
       <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="2:16" ht="18">
       <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="2:16" ht="18">
       <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="65"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="63"/>
       <c r="E22" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="54"/>
       <c r="E23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:16" ht="36.75" thickBot="1">
       <c r="B24" s="11"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
     <row r="26" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B26" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2"/>
       <c r="F26" s="2"/>
       <c r="P26" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1">
@@ -1862,88 +2552,88 @@
     </row>
     <row r="28" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B29" s="19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="67"/>
       <c r="F29" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:16" ht="25.5" customHeight="1">
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:16" ht="25.5" customHeight="1">
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="25.5" customHeight="1">
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="25.5" customHeight="1">
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="25.5" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" customHeight="1">
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -1952,57 +2642,63 @@
     </row>
     <row r="39" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="B39" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" thickBot="1"/>
     <row r="41" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B41" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
+      <c r="B41" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="1:10" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
+      <c r="B42" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
+      <c r="B43" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
       <c r="J43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
+      <c r="B44" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A47" s="27"/>
@@ -2356,11 +3052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:IV41"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2382,223 +3078,255 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="2:9" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="C7" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="2:9" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="C8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:9" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="F11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="G11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="H11" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="I11" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="54" t="s">
+    </row>
+    <row r="12" spans="2:9" s="40" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B12" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="D12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="73">
+        <v>44536</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="40" customFormat="1" ht="42" customHeight="1">
+      <c r="B13" s="71"/>
+      <c r="C13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="74">
+        <v>44536</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" customFormat="1" ht="45">
+      <c r="B14" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="73">
+        <v>44536</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="2:9" customFormat="1" ht="51.75" customHeight="1">
+      <c r="B15" s="71"/>
+      <c r="C15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="73">
+        <v>44536</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="2:9" customFormat="1" ht="43.5" customHeight="1">
+      <c r="B16" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="E16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="74">
+        <v>44536</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" s="40" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B12" s="73" t="s">
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:256" customFormat="1" ht="27" customHeight="1">
+      <c r="B17" s="78"/>
+      <c r="C17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="2:9" s="40" customFormat="1" ht="42" customHeight="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
+      <c r="E17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="73">
+        <v>44536</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" customFormat="1" ht="45">
-      <c r="B14" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="2:9" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="38" t="s">
+      <c r="H17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="2:9" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B16" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:256" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="74"/>
-      <c r="C17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:256" customFormat="1" ht="15">
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:256" customFormat="1" ht="15">
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:256" customFormat="1" ht="15">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="31"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="IV21" s="2"/>
     </row>
     <row r="22" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -2747,11 +3475,941 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="12" style="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:257">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:257" ht="30">
+      <c r="B6" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:257" ht="30">
+      <c r="B7" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="9" spans="1:257" ht="114">
+      <c r="B9" s="94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:257" ht="71.25">
+      <c r="B10" s="94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:257">
+      <c r="B11" s="94"/>
+    </row>
+    <row r="12" spans="1:257">
+      <c r="B12" s="94"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="14" spans="1:257" ht="9.75" customHeight="1"/>
+    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="IW15" s="2"/>
+    </row>
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="IW16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="IW17" s="2"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="IW20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="IW21" s="2"/>
+    </row>
+    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="IW22" s="2"/>
+    </row>
+    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="IW23" s="2"/>
+    </row>
+    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="IW24" s="2"/>
+    </row>
+    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="IW25" s="2"/>
+    </row>
+    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="IW26" s="2"/>
+    </row>
+    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="IW27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="IW28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="IW29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="35"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="J32" s="36"/>
+      <c r="IW32" s="2"/>
+    </row>
+    <row r="33" spans="2:257" s="1" customFormat="1">
+      <c r="B33" s="35"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="J33" s="36"/>
+      <c r="IW33" s="2"/>
+    </row>
+    <row r="34" spans="2:257" s="1" customFormat="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="IW34" s="2"/>
+    </row>
+    <row r="35" spans="2:257" s="1" customFormat="1">
+      <c r="B35" s="35"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="IW35" s="2"/>
+    </row>
+    <row r="36" spans="2:257" s="1" customFormat="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="IW36" s="2"/>
+    </row>
+    <row r="37" spans="2:257" s="1" customFormat="1">
+      <c r="B37" s="35"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="IW37" s="2"/>
+    </row>
+    <row r="38" spans="2:257" s="1" customFormat="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="IW38" s="2"/>
+    </row>
+    <row r="39" spans="2:257" s="1" customFormat="1">
+      <c r="B39" s="35"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="IW39" s="2"/>
+    </row>
+    <row r="40" spans="2:257" s="1" customFormat="1">
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="IW40" s="2"/>
+    </row>
+    <row r="41" spans="2:257" s="1" customFormat="1">
+      <c r="C41" s="28"/>
+      <c r="D41" s="26"/>
+      <c r="IW41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:IW41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="12" style="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:257">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="1:257" ht="30">
+      <c r="B4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:257">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:257" ht="30.75" customHeight="1">
+      <c r="B7" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:257" ht="33.75" customHeight="1">
+      <c r="B8" s="82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:257" ht="409.5">
+      <c r="B9" s="92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:257" ht="15">
+      <c r="B11" s="82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:257" ht="15.75" thickBot="1">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:257" ht="15" thickBot="1">
+      <c r="B13" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:257" ht="15" thickBot="1">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" spans="1:257" s="1" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="IW15" s="2"/>
+    </row>
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="IW16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="G17" s="26"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="IW17" s="2"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="90"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="IW20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="IW21" s="2"/>
+    </row>
+    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="IW22" s="2"/>
+    </row>
+    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="IW23" s="2"/>
+    </row>
+    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="IW24" s="2"/>
+    </row>
+    <row r="25" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="IW25" s="2"/>
+    </row>
+    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="IW26" s="2"/>
+    </row>
+    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="IW27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="IW28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="IW29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="35"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="J32" s="36"/>
+      <c r="IW32" s="2"/>
+    </row>
+    <row r="33" spans="2:257" s="1" customFormat="1">
+      <c r="B33" s="35"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="J33" s="36"/>
+      <c r="IW33" s="2"/>
+    </row>
+    <row r="34" spans="2:257" s="1" customFormat="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="IW34" s="2"/>
+    </row>
+    <row r="35" spans="2:257" s="1" customFormat="1">
+      <c r="B35" s="35"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="IW35" s="2"/>
+    </row>
+    <row r="36" spans="2:257" s="1" customFormat="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="IW36" s="2"/>
+    </row>
+    <row r="37" spans="2:257" s="1" customFormat="1">
+      <c r="B37" s="35"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="IW37" s="2"/>
+    </row>
+    <row r="38" spans="2:257" s="1" customFormat="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="IW38" s="2"/>
+    </row>
+    <row r="39" spans="2:257" s="1" customFormat="1">
+      <c r="B39" s="35"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="IW39" s="2"/>
+    </row>
+    <row r="40" spans="2:257" s="1" customFormat="1">
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="IW40" s="2"/>
+    </row>
+    <row r="41" spans="2:257" s="1" customFormat="1">
+      <c r="C41" s="28"/>
+      <c r="D41" s="26"/>
+      <c r="IW41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:IW41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="118.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="12" style="1" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:257">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="5" spans="1:257">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:257">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:257" ht="30">
+      <c r="B7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:257" ht="30">
+      <c r="B8" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:257" ht="24.75" customHeight="1"/>
+    <row r="10" spans="1:257" ht="409.5">
+      <c r="B10" s="81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:257">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="IW15" s="2"/>
+    </row>
+    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="IW16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="IW17" s="2"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="IW20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="IW21" s="2"/>
+    </row>
+    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="IW22" s="2"/>
+    </row>
+    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="IW23" s="2"/>
+    </row>
+    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="IW24" s="2"/>
+    </row>
+    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="IW25" s="2"/>
+    </row>
+    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="IW26" s="2"/>
+    </row>
+    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="IW27" s="2"/>
+    </row>
+    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="IW28" s="2"/>
+    </row>
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="IW29" s="2"/>
+    </row>
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="IW30" s="2"/>
+    </row>
+    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="35"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="IW31" s="2"/>
+    </row>
+    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="J32" s="36"/>
+      <c r="IW32" s="2"/>
+    </row>
+    <row r="33" spans="2:257" s="1" customFormat="1">
+      <c r="B33" s="35"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="J33" s="36"/>
+      <c r="IW33" s="2"/>
+    </row>
+    <row r="34" spans="2:257" s="1" customFormat="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="IW34" s="2"/>
+    </row>
+    <row r="35" spans="2:257" s="1" customFormat="1">
+      <c r="B35" s="35"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="IW35" s="2"/>
+    </row>
+    <row r="36" spans="2:257" s="1" customFormat="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="IW36" s="2"/>
+    </row>
+    <row r="37" spans="2:257" s="1" customFormat="1">
+      <c r="B37" s="35"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="IW37" s="2"/>
+    </row>
+    <row r="38" spans="2:257" s="1" customFormat="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="IW38" s="2"/>
+    </row>
+    <row r="39" spans="2:257" s="1" customFormat="1">
+      <c r="B39" s="35"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="IW39" s="2"/>
+    </row>
+    <row r="40" spans="2:257" s="1" customFormat="1">
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="IW40" s="2"/>
+    </row>
+    <row r="41" spans="2:257" s="1" customFormat="1">
+      <c r="C41" s="28"/>
+      <c r="D41" s="26"/>
+      <c r="IW41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:IW41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2776,32 +4434,32 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
@@ -3002,8 +4660,8 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
@@ -3012,18 +4670,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
@@ -3041,33 +4699,31 @@
     <row r="2" spans="1:257">
       <c r="F2" s="2"/>
     </row>
-    <row r="5" spans="1:257">
+    <row r="3" spans="1:257" ht="30">
+      <c r="B3" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="5" spans="1:257" ht="30">
+      <c r="B5" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
     </row>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
@@ -3264,810 +4920,11 @@
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:E5"/>
+  <mergeCells count="4">
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="12" style="1" customWidth="1"/>
-    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:257">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="5" spans="1:257">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:257">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="12" spans="1:257">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="IW15" s="2"/>
-    </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="IW17" s="2"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="IW21" s="2"/>
-    </row>
-    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="IW22" s="2"/>
-    </row>
-    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="IW23" s="2"/>
-    </row>
-    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="IW24" s="2"/>
-    </row>
-    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="IW25" s="2"/>
-    </row>
-    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="IW26" s="2"/>
-    </row>
-    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="IW27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="IW28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="IW29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
-      <c r="IW32" s="2"/>
-    </row>
-    <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
-      <c r="IW33" s="2"/>
-    </row>
-    <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="IW34" s="2"/>
-    </row>
-    <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="IW35" s="2"/>
-    </row>
-    <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="IW36" s="2"/>
-    </row>
-    <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="IW37" s="2"/>
-    </row>
-    <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="IW38" s="2"/>
-    </row>
-    <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="IW39" s="2"/>
-    </row>
-    <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="IW40" s="2"/>
-    </row>
-    <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
-      <c r="IW41" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="12" style="1" customWidth="1"/>
-    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:257">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="5" spans="1:257">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:257">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="12" spans="1:257">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="IW15" s="2"/>
-    </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="IW17" s="2"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="IW21" s="2"/>
-    </row>
-    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="IW22" s="2"/>
-    </row>
-    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="IW23" s="2"/>
-    </row>
-    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="IW24" s="2"/>
-    </row>
-    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="IW25" s="2"/>
-    </row>
-    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="IW26" s="2"/>
-    </row>
-    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="IW27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="IW28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="IW29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
-      <c r="IW32" s="2"/>
-    </row>
-    <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
-      <c r="IW33" s="2"/>
-    </row>
-    <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="IW34" s="2"/>
-    </row>
-    <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="IW35" s="2"/>
-    </row>
-    <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="IW36" s="2"/>
-    </row>
-    <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="IW37" s="2"/>
-    </row>
-    <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="IW38" s="2"/>
-    </row>
-    <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="IW39" s="2"/>
-    </row>
-    <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="IW40" s="2"/>
-    </row>
-    <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
-      <c r="IW41" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
-    <col min="13" max="256" width="12" style="1" customWidth="1"/>
-    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:257">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="5" spans="1:257">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:257">
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="12" spans="1:257">
-      <c r="F12" s="4"/>
-    </row>
-    <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="IW15" s="2"/>
-    </row>
-    <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="IW17" s="2"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="IW21" s="2"/>
-    </row>
-    <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="IW22" s="2"/>
-    </row>
-    <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="IW23" s="2"/>
-    </row>
-    <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="IW24" s="2"/>
-    </row>
-    <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="IW25" s="2"/>
-    </row>
-    <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="IW26" s="2"/>
-    </row>
-    <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="IW27" s="2"/>
-    </row>
-    <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="IW28" s="2"/>
-    </row>
-    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="IW29" s="2"/>
-    </row>
-    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="IW30" s="2"/>
-    </row>
-    <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="IW31" s="2"/>
-    </row>
-    <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
-      <c r="IW32" s="2"/>
-    </row>
-    <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
-      <c r="IW33" s="2"/>
-    </row>
-    <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="IW34" s="2"/>
-    </row>
-    <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="IW35" s="2"/>
-    </row>
-    <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="IW36" s="2"/>
-    </row>
-    <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="IW37" s="2"/>
-    </row>
-    <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="IW38" s="2"/>
-    </row>
-    <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="IW39" s="2"/>
-    </row>
-    <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="IW40" s="2"/>
-    </row>
-    <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
-      <c r="IW41" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>

--- a/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
+++ b/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACA6F0-3266-4953-82B9-3F16ADECCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91894456-6B3D-4273-98B3-4F6FF215BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -386,6 +386,33 @@
   </si>
   <si>
     <t>Aaron Sierra (Colaborador 2)</t>
+  </si>
+  <si>
+    <t>Diagrama de Procesos</t>
+  </si>
+  <si>
+    <t>&lt;Aaron Sierra&gt;</t>
+  </si>
+  <si>
+    <t>14/11/2021</t>
+  </si>
+  <si>
+    <t>Documento formulacion de proyecto</t>
+  </si>
+  <si>
+    <t>&lt;Brayan Rosas&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentación del proyecto </t>
+  </si>
+  <si>
+    <t>Levantamiento de la información</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>&lt;Katerine Morcillo&gt; &lt;Brayan Rosas&gt;</t>
   </si>
 </sst>
 </file>
@@ -781,36 +808,6 @@
         <color rgb="FF999999"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
@@ -1096,13 +1093,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1165,12 +1188,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1178,9 +1195,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1191,57 +1208,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1252,13 +1269,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1268,71 +1285,78 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2385,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B7:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2411,44 +2435,44 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="12" spans="2:8">
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="2"/>
@@ -2459,54 +2483,54 @@
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
     </row>
     <row r="19" spans="2:16" ht="18">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="2:16" ht="18">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
     </row>
     <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
@@ -2518,10 +2542,10 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
@@ -2529,8 +2553,8 @@
     </row>
     <row r="24" spans="2:16" ht="36.75" thickBot="1">
       <c r="B24" s="11"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="12" t="s">
         <v>10</v>
       </c>
@@ -2558,10 +2582,10 @@
       <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="73"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="18" t="s">
         <v>16</v>
       </c>
@@ -2573,448 +2597,502 @@
       <c r="C29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="74"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="9"/>
+      <c r="B30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="91"/>
+      <c r="F30" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="39" customHeight="1">
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="91"/>
+      <c r="F31" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:256" ht="40.5" customHeight="1">
+      <c r="B33" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:256" ht="25.5" customHeight="1">
+      <c r="B34" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:256" ht="25.5" customHeight="1">
+      <c r="IR35" s="2"/>
+      <c r="IS35" s="2"/>
+      <c r="IT35" s="2"/>
+      <c r="IU35" s="2"/>
+      <c r="IV35" s="2"/>
+    </row>
+    <row r="36" spans="1:256" ht="25.5" customHeight="1">
+      <c r="IR36" s="2"/>
+      <c r="IS36" s="2"/>
+      <c r="IT36" s="2"/>
+      <c r="IU36" s="2"/>
+      <c r="IV36" s="2"/>
+    </row>
+    <row r="37" spans="1:256" ht="25.5" customHeight="1">
+      <c r="IR37" s="2"/>
+      <c r="IS37" s="2"/>
+      <c r="IT37" s="2"/>
+      <c r="IU37" s="2"/>
+      <c r="IV37" s="2"/>
+    </row>
+    <row r="38" spans="1:256" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="1:256" ht="19.899999999999999" customHeight="1">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" customHeight="1" thickBot="1"/>
-    <row r="41" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B41" s="72" t="s">
+    <row r="40" spans="1:256" ht="30" customHeight="1" thickBot="1"/>
+    <row r="41" spans="1:256" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B41" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-    </row>
-    <row r="42" spans="1:10" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B42" s="69" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+    </row>
+    <row r="42" spans="1:256" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B42" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-    </row>
-    <row r="43" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B43" s="70" t="s">
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+    </row>
+    <row r="43" spans="1:256" ht="25.5" customHeight="1">
+      <c r="B43" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="J43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B44" s="70" t="s">
+    <row r="44" spans="1:256" ht="25.5" customHeight="1">
+      <c r="B44" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-    </row>
-    <row r="45" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-    </row>
-    <row r="47" spans="1:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-    </row>
-    <row r="48" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+    </row>
+    <row r="45" spans="1:256" ht="25.5" customHeight="1">
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:256" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+    </row>
+    <row r="47" spans="1:256" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" spans="1:256" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="26"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="2"/>
-      <c r="I49" s="29"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
     <row r="52" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="2"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
     <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="30"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="28"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
     <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="24"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
     </row>
     <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
     </row>
     <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
     </row>
     <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="31"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
     </row>
     <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="F58" s="34"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="F58" s="32"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="G59" s="24"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
     <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A60" s="31"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="F60" s="28"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="F60" s="26"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
     </row>
     <row r="61" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
     </row>
     <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A62" s="31"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A63" s="31"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="24"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
     </row>
     <row r="64" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="26"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="24"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
     </row>
     <row r="65" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A65" s="31"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="G65" s="24"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
     <row r="66" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A66" s="31"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
     <row r="67" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A67" s="31"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A68" s="31"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A69" s="31"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A71" s="31"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A72" s="31"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A73" s="31"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A74" s="31"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A75" s="31"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B77" s="35"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B79" s="35"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="J80" s="36"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="J80" s="34"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="35"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="J81" s="36"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="J81" s="34"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="35"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="35"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="35"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="28"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="C89" s="28"/>
-      <c r="D89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -3027,23 +3105,6 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
@@ -3079,382 +3140,382 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="2:9" ht="30">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="2:9" ht="30">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="2:9" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B11" s="47" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="2:9" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="B11" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="40" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B12" s="88" t="s">
+    <row r="12" spans="2:9" s="38" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B12" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>44536</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="40" customFormat="1" ht="42" customHeight="1">
-      <c r="B13" s="89"/>
-      <c r="C13" s="38" t="s">
+    <row r="13" spans="2:9" s="38" customFormat="1" ht="42" customHeight="1">
+      <c r="B13" s="85"/>
+      <c r="C13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>44536</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:9" customFormat="1" ht="45">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="52">
         <v>44536</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B15" s="89"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="85"/>
+      <c r="C15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="52">
         <v>44536</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="2:9" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>44536</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:256" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="87"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="52">
         <v>44536</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:256" customFormat="1" ht="15">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:256" customFormat="1" ht="15">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:256" customFormat="1" ht="15">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
       <c r="IV21" s="2"/>
     </row>
     <row r="22" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="IV22" s="2"/>
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="IV23" s="2"/>
     </row>
     <row r="24" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="IV24" s="2"/>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="IV25" s="2"/>
     </row>
     <row r="26" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="IV26" s="2"/>
     </row>
     <row r="27" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="IV27" s="2"/>
     </row>
     <row r="28" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="IV28" s="2"/>
     </row>
     <row r="29" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IV29" s="2"/>
     </row>
     <row r="30" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IV30" s="2"/>
     </row>
     <row r="31" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IV31" s="2"/>
     </row>
     <row r="32" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="I32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="I32" s="34"/>
       <c r="IV32" s="2"/>
     </row>
     <row r="33" spans="2:256" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="I33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="I33" s="34"/>
       <c r="IV33" s="2"/>
     </row>
     <row r="34" spans="2:256" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IV34" s="2"/>
     </row>
     <row r="35" spans="2:256" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IV35" s="2"/>
     </row>
     <row r="36" spans="2:256" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IV36" s="2"/>
     </row>
     <row r="37" spans="2:256" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IV37" s="2"/>
     </row>
     <row r="38" spans="2:256" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IV38" s="2"/>
     </row>
     <row r="39" spans="2:256" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IV39" s="2"/>
     </row>
     <row r="40" spans="2:256" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IV40" s="2"/>
     </row>
     <row r="41" spans="2:256" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IV41" s="2"/>
     </row>
   </sheetData>
@@ -3505,236 +3566,236 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:257" ht="30">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="F7" s="3"/>
     </row>
     <row r="9" spans="1:257" ht="114">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="66" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:257" ht="71.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="66" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:257">
-      <c r="B11" s="68"/>
+      <c r="B11" s="66"/>
     </row>
     <row r="12" spans="1:257">
-      <c r="B12" s="68"/>
+      <c r="B12" s="66"/>
       <c r="F12" s="4"/>
     </row>
     <row r="14" spans="1:257" ht="9.75" customHeight="1"/>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
@@ -3781,340 +3842,340 @@
       <c r="F2" s="2"/>
     </row>
     <row r="4" spans="1:257" ht="30">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:257" ht="30.75" customHeight="1">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="33.75" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:257" ht="409.5">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:257" ht="15">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:257" ht="15.75" thickBot="1">
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:257" ht="15" thickBot="1">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="61" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:257" ht="15" thickBot="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="G17" s="24"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="62"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="62" t="s">
         <v>72</v>
       </c>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="62" t="s">
         <v>74</v>
       </c>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="62"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="62"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62" t="s">
         <v>79</v>
       </c>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="64"/>
+      <c r="E26" s="62"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
@@ -4164,36 +4225,36 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:257" ht="24.75" customHeight="1"/>
     <row r="10" spans="1:257" ht="409.5">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4201,194 +4262,194 @@
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
@@ -4435,225 +4496,225 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
@@ -4701,27 +4762,27 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:257" ht="30">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="5" spans="1:257" ht="30">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:257" ht="30">
       <c r="F7" s="3"/>
@@ -4730,194 +4791,194 @@
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="24"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="24"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>

--- a/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
+++ b/App/app_documentacion/1er_trimestre/3_recoleccion/1_3_1_recoleccion_informacion (2).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91894456-6B3D-4273-98B3-4F6FF215BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA86FEC-E3FA-4B39-B39D-830B27D43081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="712" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Katherine Morcillo</t>
-  </si>
-  <si>
-    <t>Describir como se hace el marketing dentro de la empresa</t>
   </si>
   <si>
     <t xml:space="preserve">Lista de Chequeo </t>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>&lt;Katerine Morcillo&gt; &lt;Brayan Rosas&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocer cómo se realizan las ventas en la empresa </t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1285,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,17 +1331,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,15 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:F44"/>
     </sheetView>
   </sheetViews>
@@ -2435,44 +2435,44 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="12" spans="2:8">
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="2"/>
@@ -2483,54 +2483,54 @@
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="2:16" ht="18">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
     </row>
     <row r="20" spans="2:16" ht="18">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
     </row>
     <row r="21" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
@@ -2542,10 +2542,10 @@
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
@@ -2553,8 +2553,8 @@
     </row>
     <row r="24" spans="2:16" ht="36.75" thickBot="1">
       <c r="B24" s="11"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="12" t="s">
         <v>10</v>
       </c>
@@ -2582,10 +2582,10 @@
       <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="18" t="s">
         <v>16</v>
       </c>
@@ -2595,14 +2595,14 @@
         <v>6</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="72"/>
+      <c r="F29" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1">
@@ -2610,14 +2610,14 @@
         <v>6</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="39" customHeight="1">
@@ -2625,14 +2625,14 @@
         <v>6</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="91"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="25.5" customHeight="1">
@@ -2640,14 +2640,14 @@
         <v>6</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="93"/>
+        <v>97</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="75"/>
       <c r="F32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:256" ht="40.5" customHeight="1">
@@ -2655,14 +2655,14 @@
         <v>6</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="93"/>
+        <v>98</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="75"/>
       <c r="F33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:256" ht="25.5" customHeight="1">
@@ -2670,14 +2670,14 @@
         <v>6</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="93"/>
+        <v>99</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="75"/>
       <c r="F34" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:256" ht="25.5" customHeight="1">
@@ -2712,58 +2712,58 @@
     </row>
     <row r="40" spans="1:256" ht="30" customHeight="1" thickBot="1"/>
     <row r="41" spans="1:256" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
     </row>
     <row r="42" spans="1:256" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+    </row>
+    <row r="43" spans="1:256" ht="25.5" customHeight="1">
+      <c r="B43" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-    </row>
-    <row r="43" spans="1:256" ht="25.5" customHeight="1">
-      <c r="B43" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
       <c r="J43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="25.5" customHeight="1">
-      <c r="B44" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="B44" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
     </row>
     <row r="45" spans="1:256" ht="25.5" customHeight="1">
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:256" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" spans="1:256" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A47" s="25"/>
@@ -3079,20 +3079,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -3105,6 +3091,20 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.9763779527559107E-2" bottom="3.9763779527559107E-2" header="0" footer="0"/>
@@ -3117,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:IV41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3140,36 +3140,36 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="2:9" ht="30">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="2:9" ht="30">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1">
       <c r="B10" s="40"/>
@@ -3208,7 +3208,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" s="38" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="87" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -3234,7 +3234,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" s="38" customFormat="1" ht="42" customHeight="1">
-      <c r="B13" s="85"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="36" t="s">
         <v>39</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" customFormat="1" ht="45">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="89" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -3282,7 +3282,7 @@
       <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B15" s="85"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="36" t="s">
         <v>39</v>
       </c>
@@ -3304,8 +3304,8 @@
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="2:9" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B16" s="82" t="s">
-        <v>59</v>
+      <c r="B16" s="85" t="s">
+        <v>101</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>36</v>
@@ -3328,7 +3328,7 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:256" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="83"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="36" t="s">
         <v>39</v>
       </c>
@@ -3566,37 +3566,37 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:257" ht="30">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="F7" s="3"/>
     </row>
     <row r="9" spans="1:257" ht="114">
       <c r="B9" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:257" ht="71.25">
       <c r="B10" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:257">
@@ -3842,31 +3842,31 @@
       <c r="F2" s="2"/>
     </row>
     <row r="4" spans="1:257" ht="30">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="1:257" ht="30.75" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="33.75" customHeight="1">
@@ -3876,12 +3876,12 @@
     </row>
     <row r="9" spans="1:257" ht="409.5">
       <c r="B9" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:257" ht="15">
       <c r="B11" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:257" ht="15.75" thickBot="1">
@@ -3892,38 +3892,38 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:257" ht="15" thickBot="1">
-      <c r="B13" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="90"/>
+      <c r="B13" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="93"/>
       <c r="E13" s="61" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:257" ht="15" thickBot="1">
-      <c r="B14" s="88"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
       <c r="B15" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="24"/>
@@ -3934,14 +3934,14 @@
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="24"/>
@@ -3952,10 +3952,10 @@
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A17" s="29"/>
       <c r="B17" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -3967,11 +3967,11 @@
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A18" s="29"/>
       <c r="B18" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="62"/>
       <c r="K18" s="15"/>
@@ -3981,10 +3981,10 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -3993,38 +3993,38 @@
     <row r="20" spans="1:257" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
       <c r="A20" s="29"/>
       <c r="B20" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="62"/>
       <c r="D21" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="29"/>
       <c r="B22" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -4033,11 +4033,11 @@
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A23" s="29"/>
       <c r="B23" s="63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="62"/>
       <c r="IW23" s="2"/>
@@ -4045,11 +4045,11 @@
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A24" s="29"/>
       <c r="B24" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="62"/>
       <c r="IW24" s="2"/>
@@ -4057,25 +4057,25 @@
     <row r="25" spans="1:257" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
       <c r="A25" s="29"/>
       <c r="B25" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="62"/>
       <c r="IW26" s="2"/>
@@ -4083,10 +4083,10 @@
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A27" s="29"/>
       <c r="B27" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
@@ -4225,17 +4225,17 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="1:257" ht="30">
       <c r="B7" s="49" t="s">
@@ -4246,16 +4246,16 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:257" ht="24.75" customHeight="1"/>
     <row r="10" spans="1:257" ht="409.5">
       <c r="B10" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:257">
@@ -4496,32 +4496,32 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
@@ -4762,27 +4762,27 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:257" ht="30">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="5" spans="1:257" ht="30">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="48"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="1:257" ht="30">
       <c r="F7" s="3"/>
